--- a/biology/Médecine/Processus_mastoïde/Processus_mastoïde.xlsx
+++ b/biology/Médecine/Processus_mastoïde/Processus_mastoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_masto%C3%AFde</t>
+          <t>Processus_mastoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus mastoïde (ou apophyse mastoïde) est une saillie conique aplatie transversalement de sommet inférieur située à la partie inférieure de l'os temporal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_masto%C3%AFde</t>
+          <t>Processus_mastoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus mastoïde prolonge vers le bas la base exocrânienne de la partie pétreuse de l'os temporal.
 Il se situe en arrière de la partie tympanique en arrière et en dessous du méat acoustique externe et latéralement au processus styloïde de l'os temporal.
